--- a/QHKH/BIEUMAUEXCEL/BM07CH.xlsx
+++ b/QHKH/BIEUMAUEXCEL/BM07CH.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\QHKH\QHKH\BIEUMAUEXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F46B7A2-5E30-44E1-8636-6619159DFA8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25FCABFD-A8E2-49D0-B89E-1794F7190E42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="705" windowWidth="21600" windowHeight="14895" xr2:uid="{282F4766-5114-46B0-B433-2EEA91293C5C}"/>
+    <workbookView xWindow="3855" yWindow="705" windowWidth="21600" windowHeight="14895" xr2:uid="{282F4766-5114-46B0-B433-2EEA91293C5C}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -187,7 +187,7 @@
     <t>HNK/LMU</t>
   </si>
   <si>
-    <t>DIỆN TÍCH CHUYỂN MỤC ĐÍCH SỬ DỤNG ĐẤT TRONG KỲ QUY HOẠCH PHÂN BỔ ĐẾN TỪNG ĐƠN VỊ HÀNH CHÍNH CẤP XÃ CỦA HUYỆN (QUẬN, THỊ XÃ, THÀNH PHỐ THUỘC TỈNH, THÀNH PHỐ THUỘC THÀNH PHỐ TRỰC THUỘC TRUNG ƯƠNG) …</t>
+    <t>Kế hoạch chuyển mục đích sử dụng đất năm 20... huyện (quận, thị xã, thành phố thuộc tỉnh, thành phố thuộc thành phố trực thuộc Trung ương) …</t>
   </si>
 </sst>
 </file>
@@ -332,6 +332,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -340,12 +346,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -667,7 +667,7 @@
   <dimension ref="A1:Y29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection sqref="A1:U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -681,7 +681,7 @@
     <col min="9" max="9" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="17" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" s="14" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>51</v>
       </c>
@@ -717,28 +717,28 @@
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="13" t="s">
+      <c r="A3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
       <c r="M3" s="6"/>
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
@@ -754,10 +754,10 @@
       <c r="Y3" s="6"/>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
       <c r="E4" s="11"/>
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
@@ -766,19 +766,19 @@
       <c r="J4" s="12"/>
       <c r="K4" s="12"/>
       <c r="L4" s="12"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="16"/>
-      <c r="S4" s="16"/>
-      <c r="T4" s="16"/>
-      <c r="U4" s="16"/>
-      <c r="V4" s="16"/>
-      <c r="W4" s="16"/>
-      <c r="X4" s="16"/>
-      <c r="Y4" s="16"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="13"/>
+      <c r="V4" s="13"/>
+      <c r="W4" s="13"/>
+      <c r="X4" s="13"/>
+      <c r="Y4" s="13"/>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
@@ -1665,12 +1665,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A1:U1"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:L3"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
-    <mergeCell ref="A1:U1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/QHKH/BIEUMAUEXCEL/BM07CH.xlsx
+++ b/QHKH/BIEUMAUEXCEL/BM07CH.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\QHKH\QHKH\BIEUMAUEXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25FCABFD-A8E2-49D0-B89E-1794F7190E42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B27B497-FABE-466F-98FC-ADEA5A3F0BEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3855" yWindow="705" windowWidth="21600" windowHeight="14895" xr2:uid="{282F4766-5114-46B0-B433-2EEA91293C5C}"/>
+    <workbookView xWindow="0" yWindow="705" windowWidth="21600" windowHeight="14895" xr2:uid="{282F4766-5114-46B0-B433-2EEA91293C5C}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
   <si>
     <t>STT</t>
   </si>
@@ -188,6 +188,9 @@
   </si>
   <si>
     <t>Kế hoạch chuyển mục đích sử dụng đất năm 20... huyện (quận, thị xã, thành phố thuộc tỉnh, thành phố thuộc thành phố trực thuộc Trung ương) …</t>
+  </si>
+  <si>
+    <t>BM07/CH</t>
   </si>
 </sst>
 </file>
@@ -300,7 +303,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -338,6 +341,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -348,7 +354,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -666,8 +672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5B81006-4EE4-40EB-A6A4-3B63C9622C31}">
   <dimension ref="A1:Y29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:U1"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="Y6" sqref="Y6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -682,31 +688,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="14" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
-    </row>
-    <row r="2" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+    </row>
+    <row r="2" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -715,30 +721,33 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
+      <c r="Y2" s="19" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="15" t="s">
+      <c r="A3" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
       <c r="M3" s="6"/>
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
@@ -754,10 +763,10 @@
       <c r="Y3" s="6"/>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
       <c r="E4" s="11"/>
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
